--- a/data_processed/20250806/BTCUSDVOLSURFACE_REGULARIZED_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDVOLSURFACE_REGULARIZED_20250806.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -18219,7 +18219,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18248,7 +18248,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34427,7 +34427,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34485,7 +34485,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34568,7 +34568,7 @@
       </c>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34597,7 +34597,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35370,7 +35370,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35457,7 +35457,7 @@
       </c>
       <c r="G1380" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35544,7 +35544,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35573,7 +35573,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35602,7 +35602,7 @@
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35660,7 +35660,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35739,7 +35739,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35797,7 +35797,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36384,7 +36384,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36529,7 +36529,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36616,7 +36616,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36720,7 +36720,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -37032,7 +37032,7 @@
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37061,7 +37061,7 @@
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -37090,7 +37090,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37231,7 +37231,7 @@
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -37260,7 +37260,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37343,7 +37343,7 @@
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37459,7 +37459,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37567,7 +37567,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37596,7 +37596,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -38228,7 +38228,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38257,7 +38257,7 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38286,7 +38286,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38564,7 +38564,7 @@
       </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41195,7 +41195,7 @@
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41224,7 +41224,7 @@
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41253,7 +41253,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41311,7 +41311,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41456,7 +41456,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41572,7 +41572,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41688,7 +41688,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44649,7 +44649,7 @@
       </c>
       <c r="G1732" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44678,7 +44678,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44707,7 +44707,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44736,7 +44736,7 @@
       </c>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44765,7 +44765,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44794,7 +44794,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44823,7 +44823,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44852,7 +44852,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -44881,7 +44881,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44910,7 +44910,7 @@
       </c>
       <c r="G1741" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45076,7 +45076,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -45867,7 +45867,7 @@
       </c>
       <c r="G1778" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45896,7 +45896,7 @@
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46650,7 +46650,7 @@
       </c>
       <c r="G1809" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250806/BTCUSDVOLSURFACE_REGULARIZED_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDVOLSURFACE_REGULARIZED_20250806.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36720,7 +36720,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37061,7 +37061,7 @@
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37231,7 +37231,7 @@
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -44852,7 +44852,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250806/BTCUSDVOLSURFACE_REGULARIZED_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDVOLSURFACE_REGULARIZED_20250806.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18219,7 +18219,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18248,7 +18248,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34597,7 +34597,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35573,7 +35573,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37090,7 +37090,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37260,7 +37260,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37459,7 +37459,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37567,7 +37567,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38228,7 +38228,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38257,7 +38257,7 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38286,7 +38286,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41195,7 +41195,7 @@
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -41456,7 +41456,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44678,7 +44678,7 @@
       </c>
       <c r="G1733" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44881,7 +44881,7 @@
       </c>
       <c r="G1740" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
